--- a/water/waterreadings.xlsx
+++ b/water/waterreadings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laurie\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laurie\Documents\projects\water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26F61DF7-A06A-49E8-AD06-FC8899DD3ED1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5F2BB5F-A8B4-4B85-BACE-10586D695856}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B4B7A3BA-8AFE-4D9F-870F-7F03E287F068}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{B4B7A3BA-8AFE-4D9F-870F-7F03E287F068}"/>
   </bookViews>
   <sheets>
     <sheet name="04-01-2021" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="03-08-2020" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="48">
   <si>
     <t>Location</t>
   </si>
@@ -426,9 +425,6 @@
     <t>not taken</t>
   </si>
   <si>
-    <t>Abbey Farm Barns garden spring</t>
-  </si>
-  <si>
     <t>sample preparation issue</t>
   </si>
   <si>
@@ -436,9 +432,6 @@
   </si>
   <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>Abbey Farm Barns garden spring*</t>
   </si>
   <si>
     <t>*sample collected 8/1/21</t>
@@ -925,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA08F6BA-AB34-448D-91D6-7DE0E087F16D}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>1</v>
@@ -1201,7 +1194,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1274,7 +1267,7 @@
         <v>6.3</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
@@ -1293,7 +1286,7 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -1385,10 +1378,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>7.5</v>
@@ -1426,10 +1419,8 @@
       <c r="N12" s="31">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
+      <c r="O12" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1445,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165ABB54-EB62-4B9C-AF37-EAF90D1CC42F}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>1</v>
@@ -1909,7 +1900,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>42</v>
@@ -1969,7 +1960,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -2029,6 +2020,9 @@
       </c>
       <c r="N1" s="10" t="s">
         <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2073,7 +2067,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -2334,9 +2328,6 @@
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
       <c r="G10" s="17"/>
       <c r="L10" s="22"/>
     </row>
@@ -2366,7 +2357,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2419,6 +2410,9 @@
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2803,9 +2797,6 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
       <c r="L12" s="16" t="s">
         <v>26</v>
       </c>
@@ -2839,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3250,7 +3241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B7B965-D3A3-4A25-872D-3CD3F85436EE}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -3265,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3717,6 +3708,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE245A8A2C09D9469408A7E2647E5B8F" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ade3c69e55967ac65d06a94180e89cd2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="705b9c42-5174-4977-8b11-2754ae320ce2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ad56b780740dd9ee58c6b6eace37b449" ns3:_="">
     <xsd:import namespace="705b9c42-5174-4977-8b11-2754ae320ce2"/>
@@ -3868,22 +3874,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A4F3055-A0A7-4772-8EBA-1368231BCC9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="705b9c42-5174-4977-8b11-2754ae320ce2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D13D378E-0418-4574-A1D4-78279058E498}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8508608B-5BEF-4ED0-8953-7C7D297ABF42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3899,28 +3914,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D13D378E-0418-4574-A1D4-78279058E498}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A4F3055-A0A7-4772-8EBA-1368231BCC9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="705b9c42-5174-4977-8b11-2754ae320ce2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/water/waterreadings.xlsx
+++ b/water/waterreadings.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laurie\Documents\projects\water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5F2BB5F-A8B4-4B85-BACE-10586D695856}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6B0773C-8D43-4C5F-84EB-9F6326A29E16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{B4B7A3BA-8AFE-4D9F-870F-7F03E287F068}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B4B7A3BA-8AFE-4D9F-870F-7F03E287F068}"/>
   </bookViews>
   <sheets>
-    <sheet name="04-01-2021" sheetId="6" r:id="rId1"/>
-    <sheet name="05-12-2020" sheetId="5" r:id="rId2"/>
-    <sheet name="03-11-2020" sheetId="4" r:id="rId3"/>
-    <sheet name="07-10-2020" sheetId="3" r:id="rId4"/>
-    <sheet name="02-09-2020" sheetId="1" r:id="rId5"/>
-    <sheet name="03-08-2020" sheetId="2" r:id="rId6"/>
+    <sheet name="blank" sheetId="12" r:id="rId1"/>
+    <sheet name="07-04-2021" sheetId="11" r:id="rId2"/>
+    <sheet name="01-03-2021" sheetId="10" r:id="rId3"/>
+    <sheet name="07-02-2021" sheetId="9" r:id="rId4"/>
+    <sheet name="04-01-2021" sheetId="6" r:id="rId5"/>
+    <sheet name="05-12-2020" sheetId="5" r:id="rId6"/>
+    <sheet name="03-11-2020" sheetId="4" r:id="rId7"/>
+    <sheet name="07-10-2020" sheetId="3" r:id="rId8"/>
+    <sheet name="02-09-2020" sheetId="1" r:id="rId9"/>
+    <sheet name="03-08-2020" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="51">
   <si>
     <t>Location</t>
   </si>
@@ -439,6 +444,15 @@
   <si>
     <t>Temperature</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Oxford Road Spring</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
 </sst>
 </file>
 
@@ -531,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -589,6 +603,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -603,6 +619,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,6 +936,2044 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D6AE5B-8CF8-485A-A1EA-49E57898F621}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B7B965-D3A3-4A25-872D-3CD3F85436EE}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7.58</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="H2" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3">
+        <v>7.35</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>28.9</v>
+      </c>
+      <c r="I3" s="5">
+        <v>28</v>
+      </c>
+      <c r="J3" s="5">
+        <v>93</v>
+      </c>
+      <c r="K3" s="5">
+        <v>139</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>15.5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7.23</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="H4" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>36</v>
+      </c>
+      <c r="J4" s="5">
+        <v>117</v>
+      </c>
+      <c r="K4" s="5">
+        <v>175</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7.58</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5">
+        <v>31</v>
+      </c>
+      <c r="K5" s="5">
+        <v>47</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>20.5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.49</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I6" s="5">
+        <v>11</v>
+      </c>
+      <c r="J6" s="5">
+        <v>36</v>
+      </c>
+      <c r="K6" s="5">
+        <v>55</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.81</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7.54</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>28</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>8</v>
+      </c>
+      <c r="K7" s="5">
+        <v>11</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7.28</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="H8" s="4">
+        <v>17</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>3</v>
+      </c>
+      <c r="K8" s="5">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9C440F-6132-4BF2-AFFB-582219FB17FA}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0.04</v>
+      </c>
+      <c r="E2">
+        <v>0.04</v>
+      </c>
+      <c r="F2">
+        <v>0.03</v>
+      </c>
+      <c r="G2">
+        <v>3.7</v>
+      </c>
+      <c r="H2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>44</v>
+      </c>
+      <c r="K2">
+        <v>66</v>
+      </c>
+      <c r="L2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.37</v>
+      </c>
+      <c r="N2">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.08</v>
+      </c>
+      <c r="F3">
+        <v>0.06</v>
+      </c>
+      <c r="G3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H3">
+        <v>10.3</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>37</v>
+      </c>
+      <c r="K3">
+        <v>55</v>
+      </c>
+      <c r="L3">
+        <v>0.81</v>
+      </c>
+      <c r="M3">
+        <v>0.27</v>
+      </c>
+      <c r="N3">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>4.7</v>
+      </c>
+      <c r="H4">
+        <v>20.9</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>0.23</v>
+      </c>
+      <c r="M4">
+        <v>0.08</v>
+      </c>
+      <c r="N4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.06</v>
+      </c>
+      <c r="E5">
+        <v>0.06</v>
+      </c>
+      <c r="F5">
+        <v>0.05</v>
+      </c>
+      <c r="G5">
+        <v>3.4</v>
+      </c>
+      <c r="H5">
+        <v>15.1</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>47</v>
+      </c>
+      <c r="L5">
+        <v>1.81</v>
+      </c>
+      <c r="M5">
+        <v>0.59</v>
+      </c>
+      <c r="N5">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>0.03</v>
+      </c>
+      <c r="E6">
+        <v>0.03</v>
+      </c>
+      <c r="F6">
+        <v>0.02</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>17.7</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="M6">
+        <v>0.66</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0.02</v>
+      </c>
+      <c r="E7">
+        <v>0.02</v>
+      </c>
+      <c r="F7">
+        <v>0.02</v>
+      </c>
+      <c r="G7">
+        <v>4.3</v>
+      </c>
+      <c r="H7">
+        <v>19.2</v>
+      </c>
+      <c r="I7">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>64</v>
+      </c>
+      <c r="K7">
+        <v>96</v>
+      </c>
+      <c r="L7">
+        <v>2.4</v>
+      </c>
+      <c r="M7">
+        <v>0.8</v>
+      </c>
+      <c r="N7">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>0.01</v>
+      </c>
+      <c r="E8">
+        <v>0.01</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I8" s="33">
+        <v>16</v>
+      </c>
+      <c r="J8" s="34">
+        <v>53</v>
+      </c>
+      <c r="K8" s="34">
+        <v>79</v>
+      </c>
+      <c r="L8" s="34">
+        <v>0.43</v>
+      </c>
+      <c r="M8" s="34">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N8" s="34">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
+        <v>0.08</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1.6</v>
+      </c>
+      <c r="M10">
+        <v>0.52</v>
+      </c>
+      <c r="N10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.06</v>
+      </c>
+      <c r="G12">
+        <v>3.2</v>
+      </c>
+      <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>22</v>
+      </c>
+      <c r="K12">
+        <v>32</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>1.6</v>
+      </c>
+      <c r="N12">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>0.02</v>
+      </c>
+      <c r="E13">
+        <v>0.02</v>
+      </c>
+      <c r="F13">
+        <v>0.02</v>
+      </c>
+      <c r="G13">
+        <v>3.6</v>
+      </c>
+      <c r="H13">
+        <v>15.9</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>34</v>
+      </c>
+      <c r="K13">
+        <v>51</v>
+      </c>
+      <c r="L13">
+        <v>1.85</v>
+      </c>
+      <c r="M13">
+        <v>0.6</v>
+      </c>
+      <c r="N13">
+        <v>1.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0356218B-C9E2-421F-8A99-92289BC88D7D}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>7.46</v>
+      </c>
+      <c r="D2">
+        <v>0.15</v>
+      </c>
+      <c r="E2">
+        <v>0.16</v>
+      </c>
+      <c r="F2">
+        <v>0.12</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I2">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>93</v>
+      </c>
+      <c r="K2">
+        <v>139</v>
+      </c>
+      <c r="L2">
+        <v>1.2</v>
+      </c>
+      <c r="M2">
+        <v>0.4</v>
+      </c>
+      <c r="N2">
+        <v>0.9</v>
+      </c>
+      <c r="O2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>7.5</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>0.11</v>
+      </c>
+      <c r="F3">
+        <v>0.8</v>
+      </c>
+      <c r="G3">
+        <v>12.7</v>
+      </c>
+      <c r="H3">
+        <v>56.2</v>
+      </c>
+      <c r="I3">
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <v>86</v>
+      </c>
+      <c r="K3">
+        <v>129</v>
+      </c>
+      <c r="L3">
+        <v>1.7</v>
+      </c>
+      <c r="M3">
+        <v>0.6</v>
+      </c>
+      <c r="N3">
+        <v>1.3</v>
+      </c>
+      <c r="O3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>7.48</v>
+      </c>
+      <c r="D4">
+        <v>0.06</v>
+      </c>
+      <c r="E4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.05</v>
+      </c>
+      <c r="G4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H4">
+        <v>45.1</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>48</v>
+      </c>
+      <c r="K4">
+        <v>72</v>
+      </c>
+      <c r="L4">
+        <v>0.9</v>
+      </c>
+      <c r="M4">
+        <v>0.3</v>
+      </c>
+      <c r="N4">
+        <v>0.7</v>
+      </c>
+      <c r="O4">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>7.29</v>
+      </c>
+      <c r="D6">
+        <v>0.08</v>
+      </c>
+      <c r="E6">
+        <v>0.09</v>
+      </c>
+      <c r="F6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>48.7</v>
+      </c>
+      <c r="I6">
+        <v>95</v>
+      </c>
+      <c r="J6">
+        <v>312</v>
+      </c>
+      <c r="K6">
+        <v>467</v>
+      </c>
+      <c r="L6">
+        <v>0.9</v>
+      </c>
+      <c r="M6">
+        <v>0.3</v>
+      </c>
+      <c r="N6">
+        <v>0.7</v>
+      </c>
+      <c r="O6">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>7.57</v>
+      </c>
+      <c r="D7">
+        <v>0.12</v>
+      </c>
+      <c r="E7">
+        <v>0.13</v>
+      </c>
+      <c r="F7">
+        <v>0.1</v>
+      </c>
+      <c r="G7">
+        <v>10.3</v>
+      </c>
+      <c r="H7">
+        <v>45.8</v>
+      </c>
+      <c r="I7">
+        <v>57</v>
+      </c>
+      <c r="J7">
+        <v>188</v>
+      </c>
+      <c r="K7">
+        <v>282</v>
+      </c>
+      <c r="L7">
+        <v>1.2</v>
+      </c>
+      <c r="M7">
+        <v>0.4</v>
+      </c>
+      <c r="N7">
+        <v>0.9</v>
+      </c>
+      <c r="O7">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>7.34</v>
+      </c>
+      <c r="D8">
+        <v>0.08</v>
+      </c>
+      <c r="E8">
+        <v>0.08</v>
+      </c>
+      <c r="F8">
+        <v>0.06</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="I8" s="33">
+        <v>37</v>
+      </c>
+      <c r="J8" s="34">
+        <v>122</v>
+      </c>
+      <c r="K8" s="34">
+        <v>184</v>
+      </c>
+      <c r="L8" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="M8" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="O8">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>7.65</v>
+      </c>
+      <c r="D10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E10">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.11</v>
+      </c>
+      <c r="G10">
+        <v>0.7</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>46</v>
+      </c>
+      <c r="J10">
+        <v>151</v>
+      </c>
+      <c r="K10">
+        <v>119</v>
+      </c>
+      <c r="L10">
+        <v>1.5</v>
+      </c>
+      <c r="M10">
+        <v>0.5</v>
+      </c>
+      <c r="N10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O10">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>7.32</v>
+      </c>
+      <c r="D12">
+        <v>0.05</v>
+      </c>
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+      <c r="F12">
+        <v>0.04</v>
+      </c>
+      <c r="G12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H12">
+        <v>10.1</v>
+      </c>
+      <c r="I12">
+        <v>35</v>
+      </c>
+      <c r="J12">
+        <v>116</v>
+      </c>
+      <c r="K12">
+        <v>174</v>
+      </c>
+      <c r="L12">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M12">
+        <v>3.2</v>
+      </c>
+      <c r="N12">
+        <v>7.3</v>
+      </c>
+      <c r="O12">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>7.3</v>
+      </c>
+      <c r="G13">
+        <v>9.1</v>
+      </c>
+      <c r="H13">
+        <v>40.1</v>
+      </c>
+      <c r="I13">
+        <v>24</v>
+      </c>
+      <c r="J13">
+        <v>80</v>
+      </c>
+      <c r="K13">
+        <v>119</v>
+      </c>
+      <c r="L13">
+        <v>3.6</v>
+      </c>
+      <c r="M13">
+        <v>1.2</v>
+      </c>
+      <c r="N13">
+        <v>2.7</v>
+      </c>
+      <c r="O13">
+        <v>530</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22943A0-FD15-422A-99C4-78761CEEAD81}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>0.12</v>
+      </c>
+      <c r="E2">
+        <v>0.13</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
+        <v>5.3</v>
+      </c>
+      <c r="H2">
+        <v>23.3</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>150</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+      <c r="M2">
+        <v>0.16</v>
+      </c>
+      <c r="N2">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>7.75</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.6</v>
+      </c>
+      <c r="H3">
+        <v>11.7</v>
+      </c>
+      <c r="I3">
+        <v>43</v>
+      </c>
+      <c r="J3">
+        <v>141</v>
+      </c>
+      <c r="K3">
+        <v>212</v>
+      </c>
+      <c r="L3">
+        <v>0.32</v>
+      </c>
+      <c r="M3">
+        <v>0.1</v>
+      </c>
+      <c r="N3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>7.73</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>5.3</v>
+      </c>
+      <c r="H4">
+        <v>23.5</v>
+      </c>
+      <c r="I4">
+        <v>26</v>
+      </c>
+      <c r="J4">
+        <v>85</v>
+      </c>
+      <c r="K4">
+        <v>128</v>
+      </c>
+      <c r="L4">
+        <v>0.25</v>
+      </c>
+      <c r="M4">
+        <v>0.08</v>
+      </c>
+      <c r="N4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>7.32</v>
+      </c>
+      <c r="D5">
+        <v>0.4</v>
+      </c>
+      <c r="E5">
+        <v>0.43</v>
+      </c>
+      <c r="F5">
+        <v>0.33</v>
+      </c>
+      <c r="G5">
+        <v>1.9</v>
+      </c>
+      <c r="H5">
+        <v>8.5</v>
+      </c>
+      <c r="I5">
+        <v>44</v>
+      </c>
+      <c r="J5">
+        <v>143</v>
+      </c>
+      <c r="K5">
+        <v>214</v>
+      </c>
+      <c r="L5">
+        <v>3.4</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>7.05</v>
+      </c>
+      <c r="D6">
+        <v>0.54</v>
+      </c>
+      <c r="E6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F6">
+        <v>0.44</v>
+      </c>
+      <c r="G6">
+        <v>1.8</v>
+      </c>
+      <c r="H6">
+        <v>12.6</v>
+      </c>
+      <c r="I6">
+        <v>42</v>
+      </c>
+      <c r="J6">
+        <v>139</v>
+      </c>
+      <c r="K6">
+        <v>208</v>
+      </c>
+      <c r="L6">
+        <v>1.2</v>
+      </c>
+      <c r="M6">
+        <v>0.4</v>
+      </c>
+      <c r="N6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>8.27</v>
+      </c>
+      <c r="D7">
+        <v>0.06</v>
+      </c>
+      <c r="E7">
+        <v>0.06</v>
+      </c>
+      <c r="F7">
+        <v>0.05</v>
+      </c>
+      <c r="G7">
+        <v>1.9</v>
+      </c>
+      <c r="H7">
+        <v>8.4</v>
+      </c>
+      <c r="I7">
+        <v>55</v>
+      </c>
+      <c r="J7">
+        <v>181</v>
+      </c>
+      <c r="K7">
+        <v>271</v>
+      </c>
+      <c r="L7">
+        <v>1.9</v>
+      </c>
+      <c r="M7">
+        <v>0.6</v>
+      </c>
+      <c r="N7">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>7.76</v>
+      </c>
+      <c r="D8">
+        <v>0.05</v>
+      </c>
+      <c r="E8">
+        <v>0.05</v>
+      </c>
+      <c r="F8">
+        <v>0.04</v>
+      </c>
+      <c r="G8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H8">
+        <v>18.2</v>
+      </c>
+      <c r="I8" s="33">
+        <v>60</v>
+      </c>
+      <c r="J8" s="34">
+        <v>198</v>
+      </c>
+      <c r="K8" s="34">
+        <v>297</v>
+      </c>
+      <c r="L8" s="34">
+        <v>0.42</v>
+      </c>
+      <c r="M8" s="34">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N8" s="34">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>7.82</v>
+      </c>
+      <c r="D10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.06</v>
+      </c>
+      <c r="G10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H10">
+        <v>4.7</v>
+      </c>
+      <c r="I10">
+        <v>43</v>
+      </c>
+      <c r="J10">
+        <v>141</v>
+      </c>
+      <c r="K10">
+        <v>212</v>
+      </c>
+      <c r="L10">
+        <v>2.9</v>
+      </c>
+      <c r="M10">
+        <v>0.9</v>
+      </c>
+      <c r="N10">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>3.8</v>
+      </c>
+      <c r="H12">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I12">
+        <v>31</v>
+      </c>
+      <c r="J12">
+        <v>103</v>
+      </c>
+      <c r="K12">
+        <v>154</v>
+      </c>
+      <c r="L12">
+        <v>4.7</v>
+      </c>
+      <c r="M12">
+        <v>1.5</v>
+      </c>
+      <c r="N12">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>7.65</v>
+      </c>
+      <c r="D13">
+        <v>0.08</v>
+      </c>
+      <c r="E13">
+        <v>0.08</v>
+      </c>
+      <c r="F13">
+        <v>0.06</v>
+      </c>
+      <c r="G13">
+        <v>5.3</v>
+      </c>
+      <c r="H13">
+        <v>23.3</v>
+      </c>
+      <c r="I13">
+        <v>57</v>
+      </c>
+      <c r="J13">
+        <v>188</v>
+      </c>
+      <c r="K13">
+        <v>282</v>
+      </c>
+      <c r="L13">
+        <v>2.44</v>
+      </c>
+      <c r="M13">
+        <v>0.8</v>
+      </c>
+      <c r="N13">
+        <v>1.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA08F6BA-AB34-448D-91D6-7DE0E087F16D}">
   <dimension ref="A1:O12"/>
   <sheetViews>
@@ -1266,11 +3323,11 @@
       <c r="H8">
         <v>6.3</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
       <c r="L8">
         <v>0.19</v>
       </c>
@@ -1432,7 +3489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165ABB54-EB62-4B9C-AF37-EAF90D1CC42F}">
   <dimension ref="A1:N12"/>
   <sheetViews>
@@ -1524,11 +3581,11 @@
       <c r="K2" s="5">
         <v>117</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1564,11 +3621,11 @@
       <c r="K3" s="5">
         <v>37</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1604,11 +3661,11 @@
       <c r="K4" s="5">
         <v>189</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1688,11 +3745,11 @@
       <c r="K6" s="5">
         <v>77</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1728,11 +3785,11 @@
       <c r="K7" s="5">
         <v>57</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1768,11 +3825,11 @@
       <c r="K8" s="5">
         <v>34</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1808,11 +3865,11 @@
       <c r="K9" s="5">
         <v>69</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1848,11 +3905,11 @@
       <c r="K10" s="5">
         <v>0</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="L10" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1932,11 +3989,11 @@
       <c r="K12" s="5">
         <v>64</v>
       </c>
-      <c r="L12" s="36" t="s">
+      <c r="L12" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1955,7 +4012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7E7E09-5EBC-4CEB-882E-6D5611A28B57}">
   <dimension ref="A1:O12"/>
   <sheetViews>
@@ -2059,11 +4116,11 @@
       <c r="K2" s="5">
         <v>16</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2099,11 +4156,11 @@
       <c r="K3" s="5">
         <v>4</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2230,11 +4287,11 @@
       <c r="K6" s="5">
         <v>66</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2317,11 +4374,11 @@
       <c r="K8" s="5">
         <v>39</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G9" s="17"/>
@@ -2352,7 +4409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8116DA-D487-4A0E-8CE9-82E947385945}">
   <dimension ref="A1:O12"/>
   <sheetViews>
@@ -2736,21 +4793,21 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2810,12 +4867,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCF1436-5691-44F3-ADCE-3A43212C4048}">
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3237,483 +5294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B7B965-D3A3-4A25-872D-3CD3F85436EE}">
-  <dimension ref="A1:N18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3">
-        <v>7.58</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="H2" s="3">
-        <v>10.7</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3">
-        <v>7.35</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="H3" s="4">
-        <v>28.9</v>
-      </c>
-      <c r="I3" s="5">
-        <v>28</v>
-      </c>
-      <c r="J3" s="5">
-        <v>93</v>
-      </c>
-      <c r="K3" s="5">
-        <v>139</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.68</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>15.5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>7.23</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="G4" s="4">
-        <v>5.8</v>
-      </c>
-      <c r="H4" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="I4" s="5">
-        <v>36</v>
-      </c>
-      <c r="J4" s="5">
-        <v>117</v>
-      </c>
-      <c r="K4" s="5">
-        <v>175</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.46</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3">
-        <v>7.58</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>14.2</v>
-      </c>
-      <c r="I5" s="5">
-        <v>10</v>
-      </c>
-      <c r="J5" s="5">
-        <v>31</v>
-      </c>
-      <c r="K5" s="5">
-        <v>47</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>20.5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>7.49</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="4">
-        <v>4</v>
-      </c>
-      <c r="H6" s="4">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="I6" s="5">
-        <v>11</v>
-      </c>
-      <c r="J6" s="5">
-        <v>36</v>
-      </c>
-      <c r="K6" s="5">
-        <v>55</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1.81</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="N6" s="3">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3">
-        <v>7.54</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="H7" s="4">
-        <v>28</v>
-      </c>
-      <c r="I7" s="5">
-        <v>2</v>
-      </c>
-      <c r="J7" s="5">
-        <v>8</v>
-      </c>
-      <c r="K7" s="5">
-        <v>11</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0.73</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3">
-        <v>7.28</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="H8" s="4">
-        <v>17</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5">
-        <v>3</v>
-      </c>
-      <c r="K8" s="5">
-        <v>5</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.47</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D8:F8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3722,7 +5303,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE245A8A2C09D9469408A7E2647E5B8F" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ade3c69e55967ac65d06a94180e89cd2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="705b9c42-5174-4977-8b11-2754ae320ce2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ad56b780740dd9ee58c6b6eace37b449" ns3:_="">
     <xsd:import namespace="705b9c42-5174-4977-8b11-2754ae320ce2"/>
@@ -3874,23 +5455,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A4F3055-A0A7-4772-8EBA-1368231BCC9F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="705b9c42-5174-4977-8b11-2754ae320ce2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D13D378E-0418-4574-A1D4-78279058E498}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3898,7 +5469,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8508608B-5BEF-4ED0-8953-7C7D297ABF42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3914,4 +5485,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A4F3055-A0A7-4772-8EBA-1368231BCC9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="705b9c42-5174-4977-8b11-2754ae320ce2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>